--- a/data/paper_stats/activity_relation/data_stats/activity_relation_data_stats.xlsx
+++ b/data/paper_stats/activity_relation/data_stats/activity_relation_data_stats.xlsx
@@ -5,30 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janek\Development\Git\master-thesis\data\paper_stats\activity_relation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janek\Development\Git\master-thesis\data\paper_stats\activity_relation\data_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB50E185-BE82-4D81-925E-BCAE513761E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153DAFEC-5E2B-49B0-AAEA-5FD564546478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3096" yWindow="1488" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Relation Type Count" sheetId="1" r:id="rId1"/>
     <sheet name="Same Sentence Count" sheetId="2" r:id="rId2"/>
     <sheet name="Comment Count" sheetId="3" r:id="rId3"/>
     <sheet name="Doc Count" sheetId="4" r:id="rId4"/>
-    <sheet name="Tabelle1" sheetId="6" r:id="rId5"/>
-    <sheet name="Doc Stats" sheetId="5" r:id="rId6"/>
+    <sheet name="Doc Stats" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Doc Count'!$H$1</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>relation_type</t>
   </si>
@@ -240,7 +236,7 @@
     <t>max</t>
   </si>
   <si>
-    <t>Value</t>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -269,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -292,28 +288,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -620,7 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -689,19 +675,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="C4">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="D4">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="E4">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="F4">
-        <v>2872</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -731,13 +717,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -745,19 +738,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="b">
         <v>0</v>
       </c>
@@ -767,17 +751,8 @@
       <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>17</v>
-      </c>
-      <c r="F2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -785,35 +760,17 @@
       <c r="C3">
         <v>380</v>
       </c>
-      <c r="D3">
-        <v>380</v>
-      </c>
-      <c r="E3">
-        <v>380</v>
-      </c>
-      <c r="F3">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4">
-        <v>2848</v>
-      </c>
-      <c r="D4">
-        <v>2848</v>
-      </c>
-      <c r="E4">
-        <v>2848</v>
-      </c>
-      <c r="F4">
-        <v>2848</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
@@ -821,17 +778,8 @@
       <c r="C5">
         <v>477</v>
       </c>
-      <c r="D5">
-        <v>477</v>
-      </c>
-      <c r="E5">
-        <v>477</v>
-      </c>
-      <c r="F5">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="b">
         <v>1</v>
       </c>
@@ -841,17 +789,8 @@
       <c r="C6">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -859,17 +798,8 @@
       <c r="C7">
         <v>109</v>
       </c>
-      <c r="D7">
-        <v>109</v>
-      </c>
-      <c r="E7">
-        <v>109</v>
-      </c>
-      <c r="F7">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -877,31 +807,13 @@
       <c r="C8">
         <v>24</v>
       </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
         <v>30</v>
       </c>
     </row>
@@ -918,9 +830,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1062,16 +980,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="D8">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="E8">
-        <v>2872</v>
+        <v>2899</v>
       </c>
       <c r="F8">
-        <v>2872</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1123,15 +1041,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1150,11 +1066,8 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1107,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1213,11 +1126,8 @@
       <c r="F4">
         <v>55</v>
       </c>
-      <c r="H4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1237,7 +1147,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1257,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1277,7 +1187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,7 +1207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1317,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1337,7 +1247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1357,30 +1267,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B12">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C12">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D12">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="E12">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="F12">
-        <v>126</v>
-      </c>
-      <c r="H12">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -1400,7 +1307,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1420,7 +1327,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -1440,7 +1347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1460,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -1480,7 +1387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1500,7 +1407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1519,11 +1426,8 @@
       <c r="F19">
         <v>28</v>
       </c>
-      <c r="H19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -1543,7 +1447,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
@@ -1563,7 +1467,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1487,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +1507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1623,7 +1527,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1643,7 +1547,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1662,11 +1566,8 @@
       <c r="F26">
         <v>36</v>
       </c>
-      <c r="H26">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1686,7 +1587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>44</v>
       </c>
@@ -1706,7 +1607,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>45</v>
       </c>
@@ -1726,7 +1627,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>46</v>
       </c>
@@ -1746,7 +1647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -1766,7 +1667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>48</v>
       </c>
@@ -1785,11 +1686,8 @@
       <c r="F32">
         <v>121</v>
       </c>
-      <c r="H32">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1809,7 +1707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>50</v>
       </c>
@@ -1829,7 +1727,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
@@ -1849,7 +1747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1869,7 +1767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
@@ -1888,11 +1786,8 @@
       <c r="F37">
         <v>21</v>
       </c>
-      <c r="H37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
@@ -1912,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
@@ -1932,7 +1827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
@@ -1952,7 +1847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
@@ -1972,7 +1867,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1992,7 +1887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
@@ -2012,7 +1907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
@@ -2032,7 +1927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -2053,59 +1948,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="H1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3D6252-D6BB-4B98-8F47-1F990BA41E97}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2155,19 +2002,19 @@
         <v>63</v>
       </c>
       <c r="B3">
-        <v>88.545454545454547</v>
+        <v>89.159090909090907</v>
       </c>
       <c r="C3">
-        <v>88.545454545454547</v>
+        <v>89.159090909090907</v>
       </c>
       <c r="D3">
-        <v>88.545454545454547</v>
+        <v>89.159090909090907</v>
       </c>
       <c r="E3">
-        <v>88.545454545454547</v>
+        <v>89.159090909090907</v>
       </c>
       <c r="F3">
-        <v>88.545454545454547</v>
+        <v>89.159090909090907</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2175,19 +2022,19 @@
         <v>64</v>
       </c>
       <c r="B4">
-        <v>170.18382052814539</v>
+        <v>170.3705869338296</v>
       </c>
       <c r="C4">
-        <v>170.18382052814539</v>
+        <v>170.3705869338296</v>
       </c>
       <c r="D4">
-        <v>170.18382052814539</v>
+        <v>170.3705869338296</v>
       </c>
       <c r="E4">
-        <v>170.18382052814539</v>
+        <v>170.3705869338296</v>
       </c>
       <c r="F4">
-        <v>170.18382052814539</v>
+        <v>170.3705869338296</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
